--- a/public/sampleRoutes.xlsx
+++ b/public/sampleRoutes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Sr.</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>ModelTown to Chauhang</t>
-  </si>
-  <si>
-    <t>Note:All fields are required for every item.</t>
   </si>
 </sst>
 </file>
@@ -100,9 +97,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,7 +381,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,17 +462,12 @@
       <c r="D6" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:D10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
